--- a/103_BaseDeDonnees/Exercices/204_ClubVideo/CLUB VIDEO Matrice.xlsx
+++ b/103_BaseDeDonnees/Exercices/204_ClubVideo/CLUB VIDEO Matrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba75d8fe6eadcc5e/Documents/GitHub/FORMATION-CDA-2210/103_BaseDeDonnees/Exercices/204_ClubVideo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{8D980138-AF1C-4431-A3A1-F983C603053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F3D548D-F4F3-424E-8718-8CA5CEF8538C}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{8D980138-AF1C-4431-A3A1-F983C603053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27A4E945-DFFA-46E5-9EAA-1768C4966376}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3918ACFD-051D-4880-BF4A-013F3B932156}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3918ACFD-051D-4880-BF4A-013F3B932156}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>client_id</t>
   </si>
@@ -44,9 +44,6 @@
     <t>genre_id</t>
   </si>
   <si>
-    <t>public_id</t>
-  </si>
-  <si>
     <t>realisateur_id</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>genre_libelle</t>
   </si>
   <si>
-    <t>public_libelle</t>
-  </si>
-  <si>
     <t>realisateur_nom</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>magasin_nom</t>
   </si>
   <si>
-    <t>adresse_complement_adresse</t>
-  </si>
-  <si>
     <t>adresse_code_postal</t>
   </si>
   <si>
@@ -128,10 +119,25 @@
     <t>cassette_date_mise_en_service</t>
   </si>
   <si>
-    <t>adresse_numero_voie</t>
-  </si>
-  <si>
     <t>adresse_voie</t>
+  </si>
+  <si>
+    <t>adresse_numero</t>
+  </si>
+  <si>
+    <t>adresse_complement_remise</t>
+  </si>
+  <si>
+    <t>adresse_complement_distribution</t>
+  </si>
+  <si>
+    <t>adresse_pays</t>
+  </si>
+  <si>
+    <t>publics_id</t>
+  </si>
+  <si>
+    <t>publics_libelle</t>
   </si>
 </sst>
 </file>
@@ -196,9 +202,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -219,6 +224,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518CC5EE-42A0-4499-B31C-7B30FAB59743}">
-  <dimension ref="A2:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +538,7 @@
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -539,100 +548,116 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -644,253 +669,259 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -906,61 +937,67 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -968,125 +1005,121 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5">
-        <v>1</v>
-      </c>
+      <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6">
-        <v>1</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6">
-        <v>1</v>
-      </c>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6">
-        <v>1</v>
-      </c>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6">
-        <v>1</v>
-      </c>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6">
-        <v>1</v>
-      </c>
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6">
-        <v>1</v>
-      </c>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1097,42 +1130,60 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="K32" s="5">
+        <v>1</v>
+      </c>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
         <v>1</v>
       </c>
     </row>

--- a/103_BaseDeDonnees/Exercices/204_ClubVideo/CLUB VIDEO Matrice.xlsx
+++ b/103_BaseDeDonnees/Exercices/204_ClubVideo/CLUB VIDEO Matrice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba75d8fe6eadcc5e/Documents/GitHub/FORMATION-CDA-2210/103_BaseDeDonnees/Exercices/204_ClubVideo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcravo\Documents\GitHub\FORMATION-CDA-2210\103_BaseDeDonnees\Exercices\204_ClubVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{8D980138-AF1C-4431-A3A1-F983C603053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27A4E945-DFFA-46E5-9EAA-1768C4966376}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E362B-8356-42E2-AE5B-1236EBA94DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3918ACFD-051D-4880-BF4A-013F3B932156}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{3918ACFD-051D-4880-BF4A-013F3B932156}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>client_id</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>publics_libelle</t>
+  </si>
+  <si>
+    <t>nominatif_id</t>
+  </si>
+  <si>
+    <t>nominatif_nom</t>
+  </si>
+  <si>
+    <t>nominatif_prenom</t>
   </si>
 </sst>
 </file>
@@ -224,10 +233,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518CC5EE-42A0-4499-B31C-7B30FAB59743}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,9 +551,10 @@
     <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -582,8 +588,11 @@
       <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,8 +607,9 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -616,8 +626,9 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -634,8 +645,9 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -652,8 +664,9 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -668,8 +681,9 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -686,8 +700,9 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -704,8 +719,9 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -722,8 +738,9 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -740,8 +757,9 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -758,8 +776,9 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -776,8 +795,9 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,8 +812,9 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -810,8 +831,9 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -828,8 +850,9 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -846,8 +869,9 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -864,8 +888,9 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -882,8 +907,9 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -900,8 +926,9 @@
       <c r="L19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -918,8 +945,9 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -936,8 +964,9 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -954,8 +983,9 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -972,8 +1002,9 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -990,8 +1021,9 @@
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1040,9 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -1026,8 +1059,9 @@
         <v>1</v>
       </c>
       <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1044,8 +1078,9 @@
         <v>1</v>
       </c>
       <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1062,8 +1097,9 @@
         <v>1</v>
       </c>
       <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1080,8 +1116,9 @@
         <v>1</v>
       </c>
       <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
@@ -1098,8 +1135,9 @@
         <v>1</v>
       </c>
       <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
@@ -1116,8 +1154,9 @@
         <v>1</v>
       </c>
       <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1134,8 +1173,9 @@
         <v>1</v>
       </c>
       <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1190,9 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
@@ -1168,8 +1209,9 @@
       <c r="L34" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
@@ -1186,6 +1228,70 @@
       <c r="L35" s="4">
         <v>1</v>
       </c>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/103_BaseDeDonnees/Exercices/204_ClubVideo/CLUB VIDEO Matrice.xlsx
+++ b/103_BaseDeDonnees/Exercices/204_ClubVideo/CLUB VIDEO Matrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcravo\Documents\GitHub\FORMATION-CDA-2210\103_BaseDeDonnees\Exercices\204_ClubVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E362B-8356-42E2-AE5B-1236EBA94DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D6EDF3-2A6D-4672-9752-D6DFC2626888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{3918ACFD-051D-4880-BF4A-013F3B932156}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>client_id</t>
   </si>
@@ -65,9 +65,6 @@
     <t>adresse_id</t>
   </si>
   <si>
-    <t>emprunt_id</t>
-  </si>
-  <si>
     <t>client_caution</t>
   </si>
   <si>
@@ -105,12 +102,6 @@
   </si>
   <si>
     <t>adresse_ville</t>
-  </si>
-  <si>
-    <t>emprunt_date_heure_emprunt</t>
-  </si>
-  <si>
-    <t>emprunt_date_heure_retour</t>
   </si>
   <si>
     <t>etat_libelle</t>
@@ -532,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518CC5EE-42A0-4499-B31C-7B30FAB59743}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,10 +542,10 @@
     <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -562,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -586,13 +577,10 @@
         <v>8</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,11 +595,10 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -626,11 +613,10 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -645,11 +631,10 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -664,9 +649,8 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -681,11 +665,10 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5">
@@ -700,11 +683,10 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -719,11 +701,10 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -738,9 +719,8 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -757,11 +737,10 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -776,11 +755,10 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -795,9 +773,8 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -812,11 +789,10 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -831,11 +807,10 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -850,11 +825,10 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -869,9 +843,8 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -888,11 +861,10 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -907,9 +879,8 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -923,14 +894,11 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -945,9 +913,8 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -964,11 +931,10 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -983,9 +949,8 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,11 +967,10 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1021,9 +985,8 @@
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1040,11 +1003,10 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1059,11 +1021,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1078,11 +1039,10 @@
         <v>1</v>
       </c>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1097,11 +1057,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1116,11 +1075,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1135,11 +1093,10 @@
         <v>1</v>
       </c>
       <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1154,11 +1111,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1173,28 +1129,34 @@
         <v>1</v>
       </c>
       <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1209,11 +1171,10 @@
       <c r="L34" s="4">
         <v>1</v>
       </c>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1228,70 +1189,6 @@
       <c r="L35" s="4">
         <v>1</v>
       </c>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/103_BaseDeDonnees/Exercices/204_ClubVideo/CLUB VIDEO Matrice.xlsx
+++ b/103_BaseDeDonnees/Exercices/204_ClubVideo/CLUB VIDEO Matrice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcravo\Documents\GitHub\FORMATION-CDA-2210\103_BaseDeDonnees\Exercices\204_ClubVideo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba75d8fe6eadcc5e/Documents/GitHub/FORMATION-CDA-2210/103_BaseDeDonnees/Exercices/204_ClubVideo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D6EDF3-2A6D-4672-9752-D6DFC2626888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{32D6EDF3-2A6D-4672-9752-D6DFC2626888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC30CA4D-CB33-41CF-8021-F7C0431E1DB2}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{3918ACFD-051D-4880-BF4A-013F3B932156}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3918ACFD-051D-4880-BF4A-013F3B932156}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>client_id</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>nominatif_prenom</t>
+  </si>
+  <si>
+    <t>magasin_raison_sociale</t>
+  </si>
+  <si>
+    <t>tritre_duree</t>
   </si>
 </sst>
 </file>
@@ -523,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518CC5EE-42A0-4499-B31C-7B30FAB59743}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,24 +887,26 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -906,35 +914,33 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -942,35 +948,35 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -978,55 +984,57 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
+      <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5">
-        <v>1</v>
-      </c>
-      <c r="L26" s="5"/>
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1035,14 +1043,12 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5">
-        <v>1</v>
-      </c>
+      <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1060,7 +1066,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1078,7 +1084,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1096,7 +1102,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1114,7 +1120,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1131,62 +1137,98 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="A33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4">
-        <v>1</v>
-      </c>
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
       <c r="K35" s="4"/>
-      <c r="L35" s="4">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4">
         <v>1</v>
       </c>
     </row>

--- a/103_BaseDeDonnees/Exercices/204_ClubVideo/CLUB VIDEO Matrice.xlsx
+++ b/103_BaseDeDonnees/Exercices/204_ClubVideo/CLUB VIDEO Matrice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba75d8fe6eadcc5e/Documents/GitHub/FORMATION-CDA-2210/103_BaseDeDonnees/Exercices/204_ClubVideo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcravo\Documents\GitHub\FORMATION-CDA-2210\103_BaseDeDonnees\Exercices\204_ClubVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{32D6EDF3-2A6D-4672-9752-D6DFC2626888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC30CA4D-CB33-41CF-8021-F7C0431E1DB2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD12E2FA-1BBB-4BA8-BD9E-86AF47E0D467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3918ACFD-051D-4880-BF4A-013F3B932156}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{3918ACFD-051D-4880-BF4A-013F3B932156}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>cassette_date_mise_en_service</t>
   </si>
   <si>
-    <t>adresse_voie</t>
-  </si>
-  <si>
     <t>adresse_numero</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>tritre_duree</t>
+  </si>
+  <si>
+    <t>adresse_intitule_voie</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -888,7 +888,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
